--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_latest_eval.xlsx
@@ -1766,7 +1766,10 @@
         <v>-0.287689639421607</v>
       </c>
       <c r="I45">
-        <v>0.2952509178591439</v>
+        <v>0.2284633975843539</v>
+      </c>
+      <c r="J45">
+        <v>0.01855976243503714</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1792,7 +1795,10 @@
         <v>-0.4358670298540523</v>
       </c>
       <c r="H46">
-        <v>0.1470735274266985</v>
+        <v>0.08028600715190851</v>
+      </c>
+      <c r="I46">
+        <v>-0.1296176279974082</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1815,7 +1821,10 @@
         <v>-0.5933130188582073</v>
       </c>
       <c r="G47">
-        <v>-0.01037246157745647</v>
+        <v>-0.07715998185224648</v>
+      </c>
+      <c r="H47">
+        <v>-0.2870636170015632</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1835,10 +1844,13 @@
         <v>-0.09265356233213651</v>
       </c>
       <c r="F48">
-        <v>0.4902869949486143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.4234994746738243</v>
+      </c>
+      <c r="G48">
+        <v>0.2135958395245076</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1852,10 +1864,13 @@
         <v>-0.3730114428676057</v>
       </c>
       <c r="E49">
-        <v>0.2099291144131452</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.1431415941383551</v>
+      </c>
+      <c r="F49">
+        <v>-0.06676204101096155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1866,10 +1881,13 @@
         <v>-0.201036585022594</v>
       </c>
       <c r="D50">
-        <v>0.3819039722581568</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.3151164519833668</v>
+      </c>
+      <c r="E50">
+        <v>0.1052128168340501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1877,20 +1895,29 @@
         <v>-0.5068991247689255</v>
       </c>
       <c r="C51">
-        <v>0.07604143251182532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.009253912237035311</v>
+      </c>
+      <c r="D51">
+        <v>-0.2006497229122814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0.6883713851991116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.6215838649243215</v>
+      </c>
+      <c r="C52">
+        <v>0.4116802297750048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B53">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_latest_eval.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-1.025188112727922</v>
+      </c>
+      <c r="C2">
         <v>-0.4989491018657047</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.6407780486049788</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.002196572797085183</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.1266092791266676</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.2710209269109496</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.3471896406117954</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.07086758248887381</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.2420874048005978</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.08893999929185659</v>
-      </c>
-      <c r="K2">
-        <v>-0.3663687737149753</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.08364543516793629</v>
+      </c>
+      <c r="C3">
         <v>-0.05818351157133772</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.5847911098307261</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.7092038161603086</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.3115736101226914</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2354048964218456</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.5117269545447671</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.3405071322330432</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.4936545377417844</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2162257633186657</v>
-      </c>
-      <c r="K3">
-        <v>0.05323806995971928</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-0.1538585523806955</v>
+      </c>
+      <c r="C4">
         <v>0.4891160690213684</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.6135287753509509</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2158985693133336</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.1397298556124878</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.4160519137354094</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.2448320914236854</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.3979794969324266</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1205507225093079</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.04243697084963852</v>
-      </c>
-      <c r="K4">
-        <v>-0.1665195462441563</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.7495351060200912</v>
+      </c>
+      <c r="C5">
         <v>0.8739478123496736</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.4763176063120564</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4001488926112106</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.6764709507341322</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.5052511284224082</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.6583985339311494</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.3809697595080307</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.2179820661490843</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.09389949075456649</v>
-      </c>
-      <c r="K5">
-        <v>0.6100525277605273</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.03849281619118239</v>
+      </c>
+      <c r="C6">
         <v>-0.3591373898464348</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.4353061035472806</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.158984045424359</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.330203867736083</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.1770564622273418</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.4544852366504605</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.617472930009407</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.7415555054039247</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.2254024683979639</v>
-      </c>
-      <c r="K6">
-        <v>-0.4353061035472806</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,30 +664,33 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.2590580299438133</v>
+      </c>
+      <c r="C7">
         <v>-0.3352267436446591</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.0589046855217375</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.2301245078334615</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.07697710232472027</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.354405876747839</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.5173935701067854</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.6414761455013032</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.1253231084953424</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.3352267436446591</v>
       </c>
     </row>
@@ -696,27 +699,30 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.01855976243503714</v>
+      </c>
+      <c r="C8">
         <v>0.2948818205579588</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.1236619982462347</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.276809403754976</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.0006193706681427817</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.1636070640270892</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.287689639421607</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.2284633975843539</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.01855976243503714</v>
       </c>
     </row>
@@ -725,24 +731,27 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.1467044301255134</v>
+      </c>
+      <c r="C9">
         <v>-0.0245153921862106</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.1286320133225306</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.1487967611005881</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.3117844544595345</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.4358670298540523</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.08028600715190851</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.1296176279974082</v>
       </c>
     </row>
@@ -751,21 +760,24 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.1819613811903656</v>
+      </c>
+      <c r="C10">
         <v>-0.02881397568162436</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.3062427501047431</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.4692304434636895</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.5933130188582073</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.07715998185224648</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.2870636170015632</v>
       </c>
     </row>
@@ -774,18 +786,21 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.4718454808444464</v>
+      </c>
+      <c r="C11">
         <v>0.1944167064213277</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.0314290130623813</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.09265356233213651</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.4234994746738243</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.2135958395245076</v>
       </c>
     </row>
@@ -794,15 +809,18 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.08594117411414147</v>
+      </c>
+      <c r="C12">
         <v>-0.2489288674730878</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.3730114428676057</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.1431415941383551</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.06676204101096155</v>
       </c>
     </row>
@@ -811,12 +829,15 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.07695400962807622</v>
+      </c>
+      <c r="C13">
         <v>-0.201036585022594</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3151164519833668</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.1052128168340501</v>
       </c>
     </row>
@@ -825,9 +846,12 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.5068991247689255</v>
+      </c>
+      <c r="C14">
         <v>0.009253912237035311</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.2006497229122814</v>
       </c>
     </row>
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.6215838649243215</v>
+      </c>
+      <c r="C15">
         <v>0.4116802297750048</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_latest_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,117 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -446,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,34 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-1.025188112727922</v>
+        <v>-0.05742807311811904</v>
       </c>
       <c r="C2">
-        <v>-0.4989491018657047</v>
+        <v>0.1016982283081651</v>
       </c>
       <c r="D2">
-        <v>-0.6407780486049788</v>
+        <v>1.043620551573365</v>
       </c>
       <c r="E2">
-        <v>0.002196572797085183</v>
+        <v>1.231121619908697</v>
       </c>
       <c r="F2">
-        <v>0.1266092791266676</v>
-      </c>
-      <c r="G2">
-        <v>-0.2710209269109496</v>
-      </c>
-      <c r="H2">
-        <v>-0.3471896406117954</v>
-      </c>
-      <c r="I2">
-        <v>-0.07086758248887381</v>
-      </c>
-      <c r="J2">
-        <v>-0.2420874048005978</v>
-      </c>
-      <c r="K2">
-        <v>-0.08893999929185659</v>
+        <v>2.236339930073662</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.08364543516793629</v>
+        <v>1.888188709466754</v>
       </c>
       <c r="C3">
-        <v>-0.05818351157133772</v>
+        <v>2.075689777802086</v>
       </c>
       <c r="D3">
-        <v>0.5847911098307261</v>
+        <v>3.080908087967051</v>
       </c>
       <c r="E3">
-        <v>0.7092038161603086</v>
+        <v>6.215369856005244</v>
       </c>
       <c r="F3">
-        <v>0.3115736101226914</v>
+        <v>1.281565778604278</v>
       </c>
       <c r="G3">
-        <v>0.2354048964218456</v>
+        <v>0.9075084148691125</v>
       </c>
       <c r="H3">
-        <v>0.5117269545447671</v>
-      </c>
-      <c r="I3">
-        <v>0.3405071322330432</v>
-      </c>
-      <c r="J3">
-        <v>0.4936545377417844</v>
-      </c>
-      <c r="K3">
-        <v>0.2162257633186657</v>
+        <v>0.7600669930119678</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1538585523806955</v>
+        <v>1.02845113955915</v>
       </c>
       <c r="C4">
-        <v>0.4891160690213684</v>
+        <v>4.162912907597343</v>
       </c>
       <c r="D4">
-        <v>0.6135287753509509</v>
+        <v>-0.770891169803623</v>
       </c>
       <c r="E4">
-        <v>0.2158985693133336</v>
+        <v>-1.144948533538788</v>
       </c>
       <c r="F4">
-        <v>0.1397298556124878</v>
-      </c>
-      <c r="G4">
-        <v>0.4160519137354094</v>
-      </c>
-      <c r="H4">
-        <v>0.2448320914236854</v>
-      </c>
-      <c r="I4">
-        <v>0.3979794969324266</v>
-      </c>
-      <c r="J4">
-        <v>0.1205507225093079</v>
-      </c>
-      <c r="K4">
-        <v>-0.04243697084963852</v>
+        <v>-1.292389955395933</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.7495351060200912</v>
+        <v>-4.047240884204956</v>
       </c>
       <c r="C5">
-        <v>0.8739478123496736</v>
+        <v>-4.421298247940121</v>
       </c>
       <c r="D5">
-        <v>0.4763176063120564</v>
+        <v>-4.568739669797266</v>
       </c>
       <c r="E5">
-        <v>0.4001488926112106</v>
+        <v>-4.528244689949371</v>
       </c>
       <c r="F5">
-        <v>0.6764709507341322</v>
+        <v>-5.967447784208678</v>
       </c>
       <c r="G5">
-        <v>0.5052511284224082</v>
+        <v>-4.765753034304844</v>
       </c>
       <c r="H5">
-        <v>0.6583985339311494</v>
-      </c>
-      <c r="I5">
-        <v>0.3809697595080307</v>
-      </c>
-      <c r="J5">
-        <v>0.2179820661490843</v>
-      </c>
-      <c r="K5">
-        <v>0.09389949075456649</v>
+        <v>-4.456463277913725</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03849281619118239</v>
+        <v>-0.03993857462826644</v>
       </c>
       <c r="C6">
-        <v>-0.3591373898464348</v>
+        <v>0.0005564052196278535</v>
       </c>
       <c r="D6">
-        <v>-0.4353061035472806</v>
+        <v>-1.438646689039678</v>
       </c>
       <c r="E6">
-        <v>-0.158984045424359</v>
+        <v>-0.2369519391358443</v>
       </c>
       <c r="F6">
-        <v>-0.330203867736083</v>
-      </c>
-      <c r="G6">
-        <v>-0.1770564622273418</v>
-      </c>
-      <c r="H6">
-        <v>-0.4544852366504605</v>
-      </c>
-      <c r="I6">
-        <v>-0.617472930009407</v>
-      </c>
-      <c r="J6">
-        <v>-0.7415555054039247</v>
-      </c>
-      <c r="K6">
-        <v>-0.2254024683979639</v>
+        <v>0.07233781725527411</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,34 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.2590580299438133</v>
+        <v>-2.005334216675192</v>
       </c>
       <c r="C7">
-        <v>-0.3352267436446591</v>
+        <v>-0.803639466771358</v>
       </c>
       <c r="D7">
-        <v>-0.0589046855217375</v>
+        <v>-0.4943497103802396</v>
       </c>
       <c r="E7">
-        <v>-0.2301245078334615</v>
+        <v>-1.649402556272938</v>
       </c>
       <c r="F7">
-        <v>-0.07697710232472027</v>
+        <v>-0.1097687123833477</v>
       </c>
       <c r="G7">
-        <v>-0.354405876747839</v>
+        <v>-0.3794228323569815</v>
       </c>
       <c r="H7">
-        <v>-0.5173935701067854</v>
-      </c>
-      <c r="I7">
-        <v>-0.6414761455013032</v>
-      </c>
-      <c r="J7">
-        <v>-0.1253231084953424</v>
-      </c>
-      <c r="K7">
-        <v>-0.3352267436446591</v>
+        <v>0.1721088715421318</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,31 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01855976243503714</v>
+        <v>0.04231489763667018</v>
       </c>
       <c r="C8">
-        <v>0.2948818205579588</v>
+        <v>-1.112737948256028</v>
       </c>
       <c r="D8">
-        <v>0.1236619982462347</v>
+        <v>0.426895895633562</v>
       </c>
       <c r="E8">
-        <v>0.276809403754976</v>
+        <v>0.1572417756599283</v>
       </c>
       <c r="F8">
-        <v>-0.0006193706681427817</v>
-      </c>
-      <c r="G8">
-        <v>-0.1636070640270892</v>
-      </c>
-      <c r="H8">
-        <v>-0.287689639421607</v>
-      </c>
-      <c r="I8">
-        <v>0.2284633975843539</v>
-      </c>
-      <c r="J8">
-        <v>0.01855976243503714</v>
+        <v>0.7087734795590415</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1467044301255134</v>
+        <v>1.228061995268202</v>
       </c>
       <c r="C9">
-        <v>-0.0245153921862106</v>
+        <v>0.9584078752945684</v>
       </c>
       <c r="D9">
-        <v>0.1286320133225306</v>
+        <v>1.509939579193682</v>
       </c>
       <c r="E9">
-        <v>-0.1487967611005881</v>
+        <v>1.284012818280829</v>
       </c>
       <c r="F9">
-        <v>-0.3117844544595345</v>
+        <v>1.391828533677379</v>
       </c>
       <c r="G9">
-        <v>-0.4358670298540523</v>
+        <v>1.295428913013077</v>
       </c>
       <c r="H9">
-        <v>0.08028600715190851</v>
-      </c>
-      <c r="I9">
-        <v>-0.1296176279974082</v>
+        <v>1.798839798466086</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,25 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.1819613811903656</v>
+        <v>0.5137754236260815</v>
       </c>
       <c r="C10">
-        <v>-0.02881397568162436</v>
+        <v>0.2878486627132291</v>
       </c>
       <c r="D10">
-        <v>-0.3062427501047431</v>
+        <v>0.3956643781097787</v>
       </c>
       <c r="E10">
-        <v>-0.4692304434636895</v>
+        <v>0.299264757445477</v>
       </c>
       <c r="F10">
-        <v>-0.5933130188582073</v>
-      </c>
-      <c r="G10">
-        <v>-0.07715998185224648</v>
-      </c>
-      <c r="H10">
-        <v>-0.2870636170015632</v>
+        <v>0.8026756428984855</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.4718454808444464</v>
+        <v>0.4028038717171413</v>
       </c>
       <c r="C11">
-        <v>0.1944167064213277</v>
+        <v>0.3064042510528396</v>
       </c>
       <c r="D11">
-        <v>0.0314290130623813</v>
+        <v>0.8098151365058481</v>
       </c>
       <c r="E11">
-        <v>-0.09265356233213651</v>
+        <v>1.068337078429297</v>
       </c>
       <c r="F11">
-        <v>0.4234994746738243</v>
+        <v>-0.6556455065490165</v>
       </c>
       <c r="G11">
-        <v>0.2135958395245076</v>
+        <v>-0.002006290186315263</v>
+      </c>
+      <c r="H11">
+        <v>0.3615376447221159</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.08594117411414147</v>
+        <v>0.5336388157440486</v>
       </c>
       <c r="C12">
-        <v>-0.2489288674730878</v>
+        <v>0.7921607576674977</v>
       </c>
       <c r="D12">
-        <v>-0.3730114428676057</v>
+        <v>-0.9318218273108161</v>
       </c>
       <c r="E12">
-        <v>0.1431415941383551</v>
+        <v>-0.2781826109481148</v>
       </c>
       <c r="F12">
-        <v>-0.06676204101096155</v>
+        <v>0.0853613239603164</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.07695400962807622</v>
+        <v>-1.102517691576566</v>
       </c>
       <c r="C13">
-        <v>-0.201036585022594</v>
+        <v>-0.4488784752138651</v>
       </c>
       <c r="D13">
-        <v>0.3151164519833668</v>
+        <v>-0.08533454030543387</v>
       </c>
       <c r="E13">
-        <v>0.1052128168340501</v>
+        <v>-0.9861103851850633</v>
+      </c>
+      <c r="F13">
+        <v>0.08426517176858947</v>
+      </c>
+      <c r="G13">
+        <v>-0.4927947422478724</v>
+      </c>
+      <c r="H13">
+        <v>-0.6984007263408886</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.5068991247689255</v>
+        <v>0.1737007515684039</v>
       </c>
       <c r="C14">
-        <v>0.009253912237035311</v>
+        <v>-0.7270750933112256</v>
       </c>
       <c r="D14">
-        <v>-0.2006497229122814</v>
+        <v>0.3433004636424272</v>
+      </c>
+      <c r="E14">
+        <v>-0.2337594503740346</v>
+      </c>
+      <c r="F14">
+        <v>-0.4393654344670508</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,10 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6215838649243215</v>
+        <v>0.8389029408811082</v>
       </c>
       <c r="C15">
-        <v>0.4116802297750048</v>
+        <v>0.2618430268646463</v>
+      </c>
+      <c r="D15">
+        <v>0.05623704277163011</v>
+      </c>
+      <c r="E15">
+        <v>1.035382024492727</v>
+      </c>
+      <c r="F15">
+        <v>0.2990356811553654</v>
+      </c>
+      <c r="G15">
+        <v>0.281065866501172</v>
+      </c>
+      <c r="H15">
+        <v>0.3044707320415089</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -871,6 +922,1001 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.6954484448595206</v>
+      </c>
+      <c r="C16">
+        <v>0.2836965368615766</v>
+      </c>
+      <c r="D16">
+        <v>-0.4526498064757853</v>
+      </c>
+      <c r="E16">
+        <v>-0.4706196211299787</v>
+      </c>
+      <c r="F16">
+        <v>-0.4472147555896419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.2465870357053012</v>
+      </c>
+      <c r="C17">
+        <v>-0.2645568503594945</v>
+      </c>
+      <c r="D17">
+        <v>-0.2411519848191577</v>
+      </c>
+      <c r="E17">
+        <v>-0.6063264205858985</v>
+      </c>
+      <c r="F17">
+        <v>0.04949309658505369</v>
+      </c>
+      <c r="G17">
+        <v>-0.08137778435637</v>
+      </c>
+      <c r="H17">
+        <v>-0.1908955832804919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.1975260465718366</v>
+      </c>
+      <c r="C18">
+        <v>-0.5627004823385774</v>
+      </c>
+      <c r="D18">
+        <v>0.09311903483237477</v>
+      </c>
+      <c r="E18">
+        <v>-0.03775184610904891</v>
+      </c>
+      <c r="F18">
+        <v>-0.1472696450331708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.4425040297996861</v>
+      </c>
+      <c r="C19">
+        <v>0.3116331488582624</v>
+      </c>
+      <c r="D19">
+        <v>0.2021153499341405</v>
+      </c>
+      <c r="E19">
+        <v>-0.6276624371334127</v>
+      </c>
+      <c r="F19">
+        <v>-0.04713664796476502</v>
+      </c>
+      <c r="G19">
+        <v>-0.130522749394545</v>
+      </c>
+      <c r="H19">
+        <v>-0.3484326269343037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.2720610750631522</v>
+      </c>
+      <c r="C20">
+        <v>-1.101838862130705</v>
+      </c>
+      <c r="D20">
+        <v>-0.5213130729620578</v>
+      </c>
+      <c r="E20">
+        <v>-0.6046991743918377</v>
+      </c>
+      <c r="F20">
+        <v>-0.8226090519315964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.1065518669046048</v>
+      </c>
+      <c r="C21">
+        <v>-0.1899379683343848</v>
+      </c>
+      <c r="D21">
+        <v>-0.4078478458741435</v>
+      </c>
+      <c r="E21">
+        <v>1.155929957762027</v>
+      </c>
+      <c r="F21">
+        <v>-0.1800537483200367</v>
+      </c>
+      <c r="G21">
+        <v>1.260560668210092</v>
+      </c>
+      <c r="H21">
+        <v>0.1601165539492688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.1895682054566924</v>
+      </c>
+      <c r="C22">
+        <v>1.374209598179478</v>
+      </c>
+      <c r="D22">
+        <v>0.03822589209741434</v>
+      </c>
+      <c r="E22">
+        <v>1.478840308627543</v>
+      </c>
+      <c r="F22">
+        <v>0.3783961943667199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1.157000698704573</v>
+      </c>
+      <c r="C23">
+        <v>-0.1789830073774904</v>
+      </c>
+      <c r="D23">
+        <v>1.261631409152638</v>
+      </c>
+      <c r="E23">
+        <v>0.1611872948918152</v>
+      </c>
+      <c r="F23">
+        <v>-0.0490871032778547</v>
+      </c>
+      <c r="G23">
+        <v>0.5494571001058757</v>
+      </c>
+      <c r="H23">
+        <v>0.2237884593306613</v>
+      </c>
+      <c r="I23">
+        <v>0.9409682607062649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.4886691766355519</v>
+      </c>
+      <c r="C24">
+        <v>0.9519452398945764</v>
+      </c>
+      <c r="D24">
+        <v>-0.1484988743662463</v>
+      </c>
+      <c r="E24">
+        <v>-0.3587732725359162</v>
+      </c>
+      <c r="F24">
+        <v>0.2397709308478142</v>
+      </c>
+      <c r="G24">
+        <v>-0.0858977099274002</v>
+      </c>
+      <c r="H24">
+        <v>0.6312820914482035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>1.10624937372658</v>
+      </c>
+      <c r="C25">
+        <v>0.005805259465757717</v>
+      </c>
+      <c r="D25">
+        <v>-0.2044691387039121</v>
+      </c>
+      <c r="E25">
+        <v>0.3940750646798182</v>
+      </c>
+      <c r="F25">
+        <v>0.06840642390460383</v>
+      </c>
+      <c r="G25">
+        <v>0.7855862252802075</v>
+      </c>
+      <c r="H25">
+        <v>2.481458500917908</v>
+      </c>
+      <c r="I25">
+        <v>9.325705295842486</v>
+      </c>
+      <c r="J25">
+        <v>-8.224948787258825</v>
+      </c>
+      <c r="K25">
+        <v>-0.5155521876026774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.6446211617534254</v>
+      </c>
+      <c r="C26">
+        <v>-0.8548955599230954</v>
+      </c>
+      <c r="D26">
+        <v>-0.256351356539365</v>
+      </c>
+      <c r="E26">
+        <v>-0.5820199973145794</v>
+      </c>
+      <c r="F26">
+        <v>0.1351598040610243</v>
+      </c>
+      <c r="G26">
+        <v>1.831032079698725</v>
+      </c>
+      <c r="H26">
+        <v>8.675278874623302</v>
+      </c>
+      <c r="I26">
+        <v>-8.875375208478008</v>
+      </c>
+      <c r="J26">
+        <v>-1.165978608821861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.6387305113048862</v>
+      </c>
+      <c r="C27">
+        <v>-0.04018630792115581</v>
+      </c>
+      <c r="D27">
+        <v>-0.3658549486963703</v>
+      </c>
+      <c r="E27">
+        <v>0.3513248526792334</v>
+      </c>
+      <c r="F27">
+        <v>2.047197128316934</v>
+      </c>
+      <c r="G27">
+        <v>8.891443923241512</v>
+      </c>
+      <c r="H27">
+        <v>-8.659210159859798</v>
+      </c>
+      <c r="I27">
+        <v>-0.9498135602036515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.3668428211138005</v>
+      </c>
+      <c r="C28">
+        <v>0.04117418033858611</v>
+      </c>
+      <c r="D28">
+        <v>0.7583539817141898</v>
+      </c>
+      <c r="E28">
+        <v>2.454226257351891</v>
+      </c>
+      <c r="F28">
+        <v>9.298473052276469</v>
+      </c>
+      <c r="G28">
+        <v>-8.252181030824842</v>
+      </c>
+      <c r="H28">
+        <v>-0.5427844311686951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.4578680368388337</v>
+      </c>
+      <c r="C29">
+        <v>0.25931176453677</v>
+      </c>
+      <c r="D29">
+        <v>1.955184040174471</v>
+      </c>
+      <c r="E29">
+        <v>8.799430835099049</v>
+      </c>
+      <c r="F29">
+        <v>-8.751223248002262</v>
+      </c>
+      <c r="G29">
+        <v>-1.041826648346115</v>
+      </c>
+      <c r="H29">
+        <v>0.5410860125407967</v>
+      </c>
+      <c r="I29">
+        <v>-2.425200979808459</v>
+      </c>
+      <c r="J29">
+        <v>-0.1611698251439962</v>
+      </c>
+      <c r="K29">
+        <v>-0.6123239800707349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.4181606776922825</v>
+      </c>
+      <c r="C30">
+        <v>2.114032953329983</v>
+      </c>
+      <c r="D30">
+        <v>8.958279748254562</v>
+      </c>
+      <c r="E30">
+        <v>-8.592374334846749</v>
+      </c>
+      <c r="F30">
+        <v>-0.8829777351906024</v>
+      </c>
+      <c r="G30">
+        <v>0.6999349256963092</v>
+      </c>
+      <c r="H30">
+        <v>-2.266352066652947</v>
+      </c>
+      <c r="I30">
+        <v>-0.002320911988483623</v>
+      </c>
+      <c r="J30">
+        <v>-0.4534750669152223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2.057869132359739</v>
+      </c>
+      <c r="C31">
+        <v>8.902115927284317</v>
+      </c>
+      <c r="D31">
+        <v>-8.648538155816993</v>
+      </c>
+      <c r="E31">
+        <v>-0.9391415561608464</v>
+      </c>
+      <c r="F31">
+        <v>0.6437711047260652</v>
+      </c>
+      <c r="G31">
+        <v>-2.322515887623191</v>
+      </c>
+      <c r="H31">
+        <v>-0.05848473295872768</v>
+      </c>
+      <c r="I31">
+        <v>-0.5096388878854663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>6.652313087672924</v>
+      </c>
+      <c r="C32">
+        <v>-10.89834099542839</v>
+      </c>
+      <c r="D32">
+        <v>-3.188944395772239</v>
+      </c>
+      <c r="E32">
+        <v>-1.606031734885327</v>
+      </c>
+      <c r="F32">
+        <v>-4.572318727234583</v>
+      </c>
+      <c r="G32">
+        <v>-2.30828757257012</v>
+      </c>
+      <c r="H32">
+        <v>-2.759441727496859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-18.36749132628568</v>
+      </c>
+      <c r="C33">
+        <v>-10.65809472662953</v>
+      </c>
+      <c r="D33">
+        <v>-9.07518206574262</v>
+      </c>
+      <c r="E33">
+        <v>-12.04146905809188</v>
+      </c>
+      <c r="F33">
+        <v>-9.777437903427414</v>
+      </c>
+      <c r="G33">
+        <v>-10.22859205835415</v>
+      </c>
+      <c r="H33">
+        <v>-10.36895612186813</v>
+      </c>
+      <c r="I33">
+        <v>-9.842717111005909</v>
+      </c>
+      <c r="J33">
+        <v>-9.984546057745183</v>
+      </c>
+      <c r="K33">
+        <v>-9.341571436343118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>7.513167073507937</v>
+      </c>
+      <c r="C34">
+        <v>9.096079734394849</v>
+      </c>
+      <c r="D34">
+        <v>6.129792742045593</v>
+      </c>
+      <c r="E34">
+        <v>8.393823896710055</v>
+      </c>
+      <c r="F34">
+        <v>7.942669741783317</v>
+      </c>
+      <c r="G34">
+        <v>7.802305678269343</v>
+      </c>
+      <c r="H34">
+        <v>8.32854468913156</v>
+      </c>
+      <c r="I34">
+        <v>8.186715742392286</v>
+      </c>
+      <c r="J34">
+        <v>8.82969036379435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0.9564081874156993</v>
+      </c>
+      <c r="C35">
+        <v>-2.009878804933557</v>
+      </c>
+      <c r="D35">
+        <v>0.2541523497309064</v>
+      </c>
+      <c r="E35">
+        <v>-0.1970018051958322</v>
+      </c>
+      <c r="F35">
+        <v>-0.3373658687098063</v>
+      </c>
+      <c r="G35">
+        <v>0.1888731421524112</v>
+      </c>
+      <c r="H35">
+        <v>0.0470441954131372</v>
+      </c>
+      <c r="I35">
+        <v>0.6900188168152011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-4.157449276732949</v>
+      </c>
+      <c r="C36">
+        <v>-1.893418122068486</v>
+      </c>
+      <c r="D36">
+        <v>-2.344572276995224</v>
+      </c>
+      <c r="E36">
+        <v>-2.484936340509199</v>
+      </c>
+      <c r="F36">
+        <v>-1.958697329646981</v>
+      </c>
+      <c r="G36">
+        <v>-2.100526276386255</v>
+      </c>
+      <c r="H36">
+        <v>-1.457551654984191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1.546611864454844</v>
+      </c>
+      <c r="C37">
+        <v>1.095457709528105</v>
+      </c>
+      <c r="D37">
+        <v>0.9550936460141312</v>
+      </c>
+      <c r="E37">
+        <v>1.481332656876349</v>
+      </c>
+      <c r="F37">
+        <v>1.339503710137075</v>
+      </c>
+      <c r="G37">
+        <v>1.982478331539139</v>
+      </c>
+      <c r="H37">
+        <v>2.106891037868721</v>
+      </c>
+      <c r="I37">
+        <v>1.709260831831104</v>
+      </c>
+      <c r="J37">
+        <v>1.633092118130258</v>
+      </c>
+      <c r="K37">
+        <v>1.90941417625318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>1.156631887942306</v>
+      </c>
+      <c r="C38">
+        <v>1.016267824428332</v>
+      </c>
+      <c r="D38">
+        <v>1.54250683529055</v>
+      </c>
+      <c r="E38">
+        <v>1.400677888551276</v>
+      </c>
+      <c r="F38">
+        <v>2.04365250995334</v>
+      </c>
+      <c r="G38">
+        <v>2.168065216282922</v>
+      </c>
+      <c r="H38">
+        <v>1.770435010245305</v>
+      </c>
+      <c r="I38">
+        <v>1.694266296544459</v>
+      </c>
+      <c r="J38">
+        <v>1.970588354667381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>-1.025188112727922</v>
+      </c>
+      <c r="C39">
+        <v>-0.4989491018657047</v>
+      </c>
+      <c r="D39">
+        <v>-0.6407780486049788</v>
+      </c>
+      <c r="E39">
+        <v>0.002196572797085183</v>
+      </c>
+      <c r="F39">
+        <v>0.1266092791266676</v>
+      </c>
+      <c r="G39">
+        <v>-0.2710209269109496</v>
+      </c>
+      <c r="H39">
+        <v>-0.3471896406117954</v>
+      </c>
+      <c r="I39">
+        <v>-0.07086758248887381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.08364543516793629</v>
+      </c>
+      <c r="C40">
+        <v>-0.05818351157133772</v>
+      </c>
+      <c r="D40">
+        <v>0.5847911098307261</v>
+      </c>
+      <c r="E40">
+        <v>0.7092038161603086</v>
+      </c>
+      <c r="F40">
+        <v>0.3115736101226914</v>
+      </c>
+      <c r="G40">
+        <v>0.2354048964218456</v>
+      </c>
+      <c r="H40">
+        <v>0.5117269545447671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>-0.1538585523806955</v>
+      </c>
+      <c r="C41">
+        <v>0.4891160690213684</v>
+      </c>
+      <c r="D41">
+        <v>0.6135287753509509</v>
+      </c>
+      <c r="E41">
+        <v>0.2158985693133336</v>
+      </c>
+      <c r="F41">
+        <v>0.1397298556124878</v>
+      </c>
+      <c r="G41">
+        <v>0.4160519137354094</v>
+      </c>
+      <c r="H41">
+        <v>0.2448320914236854</v>
+      </c>
+      <c r="I41">
+        <v>0.3979794969324266</v>
+      </c>
+      <c r="J41">
+        <v>0.1205507225093079</v>
+      </c>
+      <c r="K41">
+        <v>-0.04243697084963852</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.7495351060200912</v>
+      </c>
+      <c r="C42">
+        <v>0.8739478123496736</v>
+      </c>
+      <c r="D42">
+        <v>0.4763176063120564</v>
+      </c>
+      <c r="E42">
+        <v>0.4001488926112106</v>
+      </c>
+      <c r="F42">
+        <v>0.6764709507341322</v>
+      </c>
+      <c r="G42">
+        <v>0.5052511284224082</v>
+      </c>
+      <c r="H42">
+        <v>0.6583985339311494</v>
+      </c>
+      <c r="I42">
+        <v>0.3809697595080307</v>
+      </c>
+      <c r="J42">
+        <v>0.2179820661490843</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0.03849281619118239</v>
+      </c>
+      <c r="C43">
+        <v>-0.3591373898464348</v>
+      </c>
+      <c r="D43">
+        <v>-0.4353061035472806</v>
+      </c>
+      <c r="E43">
+        <v>-0.158984045424359</v>
+      </c>
+      <c r="F43">
+        <v>-0.330203867736083</v>
+      </c>
+      <c r="G43">
+        <v>-0.1770564622273418</v>
+      </c>
+      <c r="H43">
+        <v>-0.4544852366504605</v>
+      </c>
+      <c r="I43">
+        <v>-0.617472930009407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>-0.2590580299438133</v>
+      </c>
+      <c r="C44">
+        <v>-0.3352267436446591</v>
+      </c>
+      <c r="D44">
+        <v>-0.0589046855217375</v>
+      </c>
+      <c r="E44">
+        <v>-0.2301245078334615</v>
+      </c>
+      <c r="F44">
+        <v>-0.07697710232472027</v>
+      </c>
+      <c r="G44">
+        <v>-0.354405876747839</v>
+      </c>
+      <c r="H44">
+        <v>-0.5173935701067854</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0.01855976243503714</v>
+      </c>
+      <c r="C45">
+        <v>0.2948818205579588</v>
+      </c>
+      <c r="D45">
+        <v>0.1236619982462347</v>
+      </c>
+      <c r="E45">
+        <v>0.276809403754976</v>
+      </c>
+      <c r="F45">
+        <v>-0.0006193706681427817</v>
+      </c>
+      <c r="G45">
+        <v>-0.1636070640270892</v>
+      </c>
+      <c r="H45">
+        <v>-0.287689639421607</v>
+      </c>
+      <c r="I45">
+        <v>0.2284633975843539</v>
+      </c>
+      <c r="J45">
+        <v>0.01855976243503714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.1467044301255134</v>
+      </c>
+      <c r="C46">
+        <v>-0.0245153921862106</v>
+      </c>
+      <c r="D46">
+        <v>0.1286320133225306</v>
+      </c>
+      <c r="E46">
+        <v>-0.1487967611005881</v>
+      </c>
+      <c r="F46">
+        <v>-0.3117844544595345</v>
+      </c>
+      <c r="G46">
+        <v>-0.4358670298540523</v>
+      </c>
+      <c r="H46">
+        <v>0.08028600715190851</v>
+      </c>
+      <c r="I46">
+        <v>-0.1296176279974082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>-0.1819613811903656</v>
+      </c>
+      <c r="C47">
+        <v>-0.02881397568162436</v>
+      </c>
+      <c r="D47">
+        <v>-0.3062427501047431</v>
+      </c>
+      <c r="E47">
+        <v>-0.4692304434636895</v>
+      </c>
+      <c r="F47">
+        <v>-0.5933130188582073</v>
+      </c>
+      <c r="G47">
+        <v>-0.07715998185224648</v>
+      </c>
+      <c r="H47">
+        <v>-0.2870636170015632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0.4718454808444464</v>
+      </c>
+      <c r="C48">
+        <v>0.1944167064213277</v>
+      </c>
+      <c r="D48">
+        <v>0.0314290130623813</v>
+      </c>
+      <c r="E48">
+        <v>-0.09265356233213651</v>
+      </c>
+      <c r="F48">
+        <v>0.4234994746738243</v>
+      </c>
+      <c r="G48">
+        <v>0.2135958395245076</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>-0.08594117411414147</v>
+      </c>
+      <c r="C49">
+        <v>-0.2489288674730878</v>
+      </c>
+      <c r="D49">
+        <v>-0.3730114428676057</v>
+      </c>
+      <c r="E49">
+        <v>0.1431415941383551</v>
+      </c>
+      <c r="F49">
+        <v>-0.06676204101096155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>-0.07695400962807622</v>
+      </c>
+      <c r="C50">
+        <v>-0.201036585022594</v>
+      </c>
+      <c r="D50">
+        <v>0.3151164519833668</v>
+      </c>
+      <c r="E50">
+        <v>0.1052128168340501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>-0.5068991247689255</v>
+      </c>
+      <c r="C51">
+        <v>0.009253912237035311</v>
+      </c>
+      <c r="D51">
+        <v>-0.2006497229122814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0.6215838649243215</v>
+      </c>
+      <c r="C52">
+        <v>0.4116802297750048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
         <v>-0.2766911554241067</v>
       </c>
     </row>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_latest_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Q0</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>2025-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-10-01 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,6 +1923,11 @@
         <v>-0.2766911554241067</v>
       </c>
     </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
